--- a/streamlit_app/validations.xlsx
+++ b/streamlit_app/validations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insightsandcoffee-my.sharepoint.com/personal/lars_insightsandcoffee_com/Documents/Data/Client data/mycarbon/Validations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insightsandcoffee-my.sharepoint.com/personal/lars_insightsandcoffee_com/Documents/Codespace/Lreposhare/streamlit_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{BA527451-ED02-4A62-84D6-C57482566E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E44E8EC4-0BEC-40C5-A809-E5B5F7B2E6BB}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{BA527451-ED02-4A62-84D6-C57482566E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94758B9F-F01B-4CE8-8C70-4F9C8E906155}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23499" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>Required</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>MarketOrLocation</t>
+  </si>
+  <si>
+    <t>Scope 1</t>
   </si>
 </sst>
 </file>
@@ -315,10 +318,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,7 +624,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -659,7 +658,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -676,7 +675,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -693,7 +692,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -710,7 +709,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -727,7 +726,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -744,7 +743,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -761,7 +760,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -778,7 +777,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -795,7 +794,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -812,7 +811,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -829,7 +828,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -846,7 +845,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -863,7 +862,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -880,7 +879,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -897,7 +896,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -914,7 +913,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -931,7 +930,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -948,7 +947,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
